--- a/Companies/Consumer Food/Nestle India Ltd/Pruned_Excel/7_Mar21_Mar22.xlsx
+++ b/Companies/Consumer Food/Nestle India Ltd/Pruned_Excel/7_Mar21_Mar22.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar '21</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '21</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '21</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '21</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Mar '22</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '21</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '21</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '21</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '21</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>3,610.82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3,476.70</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3,882.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3,706.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>3,980.70</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3,706.20</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3,882.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3,476.70</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3,610.82</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>3980.7</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>3476.7</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>3731.398</v>
       </c>
     </row>
     <row r="3">
@@ -550,32 +518,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>33.12</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>33.12</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>33.12</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>33.12</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>3,610.82</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3,476.70</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3,882.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3,739.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>3,980.70</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3,739.32</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3,882.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3,476.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3,610.82</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>3980.7</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>3476.7</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>3738.022</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>1,513.49</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1,478.46</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,499.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1,662.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>1,845.93</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1,662.89</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1,499.26</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1,478.46</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1,513.49</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1845.93</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>1478.46</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>1600.006</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>57.18</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>51.65</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>74.09</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>60.56</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>58.13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>51.65</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>57.18</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>74.09</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>51.65</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>60.322</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>-73.04</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-35.35</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>162.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-116.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-144.29</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-116.76</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>162.45</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-35.35</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-73.04</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>162.45</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-144.29</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-41.398</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>368.07</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>378.33</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>388.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>386.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>396.64</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>386.64</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>388.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>378.33</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>368.07</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>396.64</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>368.07</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>383.588</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>95.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>105.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>104.28</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>105.75</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>95.53</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>95.29</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>105.75</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>93.62</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>98.89400000000001</v>
       </c>
     </row>
     <row r="12">
@@ -845,32 +750,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>-14.38</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>-14.38</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>-14.38</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>-14.38</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>815.25</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>755.61</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>826.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>894.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>883.68</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>894.69</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>826.48</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>755.61</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>815.25</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>894.6900000000001</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>755.61</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>835.1420000000001</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>836.25</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>752.71</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>852.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>759.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>820.37</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>759.93</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>852.46</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>752.71</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>836.25</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>852.46</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>752.71</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>804.3440000000001</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>21.44</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>27.33</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>33.66</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>29.47</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>29.65</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>33.66</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>21.44</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>28.31</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>865.90</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>782.18</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>886.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>787.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>841.81</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>787.26</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>886.12</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>782.18</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>865.90</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>886.12</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>782.1799999999999</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>832.6539999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>54.04</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>51.69</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>51.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>35.57</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>43.58</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>51.88</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>51.69</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>54.04</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>54.04</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>35.57</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>47.352</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>811.86</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>730.49</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>834.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>743.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>806.24</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>743.68</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>834.24</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>730.49</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>811.86</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>834.24</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>730.49</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>785.302</v>
       </c>
     </row>
     <row r="19">
@@ -1132,32 +974,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>-236.50</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>-236.5</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-236.5</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>-236.5</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>811.86</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>730.49</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>834.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>507.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>806.24</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>507.18</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>834.24</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>730.49</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>811.86</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>834.24</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>507.18</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>738.0020000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>209.61</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>191.91</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>216.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>120.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>211.53</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>120.52</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>216.87</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>191.91</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>209.61</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>216.87</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>120.52</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>190.088</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>602.25</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>538.58</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>617.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>386.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>594.71</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>386.66</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>617.37</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>538.58</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>602.25</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>617.37</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>386.66</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>547.914</v>
       </c>
     </row>
     <row r="23">
@@ -1291,37 +1097,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>602.25</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>538.58</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>617.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>386.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>594.71</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>386.66</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>617.37</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>538.58</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>602.25</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>617.37</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>386.66</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>547.914</v>
       </c>
     </row>
     <row r="24">
@@ -1354,15 +1151,6 @@
         <is>
           <t>96.42</t>
         </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>96.42</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>96.42</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>96.42</v>
       </c>
     </row>
     <row r="25"/>
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>62.46</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>55.86</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>64.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>61.68</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>40.10</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>64.04</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>55.86</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>62.46</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>64.04000000000001</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>56.828</v>
       </c>
     </row>
     <row r="28">
@@ -1422,37 +1201,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>62.46</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>55.86</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>64.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>61.68</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>40.10</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>64.04</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>55.86</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>62.46</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>64.04000000000001</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>56.828</v>
       </c>
     </row>
     <row r="29"/>
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>62.46</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>55.86</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>64.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>61.68</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>40.10</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>64.04</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>55.86</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>62.46</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>64.04000000000001</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>56.828</v>
       </c>
     </row>
     <row r="32">
@@ -1512,37 +1273,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>62.46</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>55.86</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>64.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>61.68</t>
         </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>40.10</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>64.04</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>55.86</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>62.46</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>64.04000000000001</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>56.828</v>
       </c>
     </row>
     <row r="33"/>
